--- a/Output/Scenario_0.35_3500_0_0_0_0_0_0.xlsx
+++ b/Output/Scenario_0.35_3500_0_0_0_0_0_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d97d3de92643fad0/Documents/Documents/Mestrado/PlanejamentoEstocasticoDeRotas/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_2200DD8F66C7F80806068BFFA679CE6EC70C2BB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE7D3B1B-2BE7-4CDC-A9AA-55C5AC539F30}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E9CB8D8B132B33B1F0B895FFA6A9483B7B07E23E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{697037AC-7CA3-4113-B9E5-A369BED42CA8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descrição do cenário" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <sheet name="FF_port" sheetId="12" r:id="rId12"/>
     <sheet name="FE_port" sheetId="13" r:id="rId13"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FF!$A$1:$P$801</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="70">
   <si>
     <t>Descrição do cenário</t>
   </si>
@@ -281,18 +278,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -322,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -331,11 +322,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,15 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -684,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>87295</v>
+        <v>91503</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.12818649045521291</v>
+        <v>0.1343656387665198</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3096,25 +3076,25 @@
         <v>60</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3458,40 +3438,40 @@
         <v>60</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -3820,40 +3800,40 @@
         <v>60</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -4000,34 +3980,34 @@
         <v>60</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4185,28 +4165,28 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4546,40 +4526,40 @@
         <v>60</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -4726,40 +4706,40 @@
         <v>60</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -5632,40 +5612,40 @@
         <v>60</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -5812,40 +5792,40 @@
         <v>60</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -6358,40 +6338,40 @@
         <v>60</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -6735,10 +6715,10 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -7444,40 +7424,40 @@
         <v>60</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -7624,34 +7604,34 @@
         <v>60</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -8170,40 +8150,40 @@
         <v>60</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -8350,40 +8330,40 @@
         <v>60</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
@@ -8532,40 +8512,40 @@
         <v>60</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
@@ -8712,34 +8692,34 @@
         <v>60</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -8894,40 +8874,40 @@
         <v>60</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O141">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P141">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
@@ -9074,40 +9054,40 @@
         <v>60</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O145">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
@@ -9982,40 +9962,40 @@
         <v>60</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M165">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N165">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O165">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P165">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
@@ -10344,40 +10324,40 @@
         <v>60</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
@@ -10706,40 +10686,40 @@
         <v>60</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O181">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P181">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
@@ -10886,40 +10866,40 @@
         <v>60</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
@@ -16237,39 +16217,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -16362,19 +16314,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E2">
         <v>167.926627</v>
       </c>
       <c r="F2">
-        <v>0.54071830363407403</v>
+        <v>0.53698580074435409</v>
       </c>
       <c r="G2">
-        <v>152</v>
+        <v>169.75</v>
       </c>
       <c r="H2">
-        <v>0.12666666666666671</v>
+        <v>0.14145833333333341</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -16395,13 +16347,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.12666666666666671</v>
+        <v>0.14145833333333341</v>
       </c>
       <c r="P2">
         <v>0.25</v>
       </c>
       <c r="Q2">
-        <v>0.91738497030074073</v>
+        <v>0.92844413407768744</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -16410,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1612997.4424999999</v>
+        <v>1871837.396939751</v>
       </c>
       <c r="U2">
         <v>277517.5</v>
@@ -16419,13 +16371,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>91400.978610030899</v>
+        <v>91307.84999186435</v>
       </c>
       <c r="X2">
-        <v>8351.2860559675464</v>
+        <v>8293.6382953363991</v>
       </c>
       <c r="Y2">
-        <v>8310.7733333333326</v>
+        <v>8637.1366666666672</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -16445,19 +16397,19 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E3">
         <v>1259.1797240000001</v>
       </c>
       <c r="F3">
-        <v>4.0545179552239894</v>
+        <v>4.0265301843595944</v>
       </c>
       <c r="G3">
-        <v>511</v>
+        <v>534.75</v>
       </c>
       <c r="H3">
-        <v>0.42583333333333329</v>
+        <v>0.44562499999999999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -16478,22 +16430,22 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.42583333333333329</v>
+        <v>0.44562499999999999</v>
       </c>
       <c r="P3">
         <v>0.25</v>
       </c>
       <c r="Q3">
-        <v>4.7303512885573227</v>
+        <v>4.7221551843595941</v>
       </c>
       <c r="R3">
-        <v>285.75</v>
+        <v>320.75</v>
       </c>
       <c r="S3">
-        <v>7.5927857142857144E-2</v>
+        <v>8.5227857142857147E-2</v>
       </c>
       <c r="T3">
-        <v>5626174.3550000004</v>
+        <v>5940480.0139625529</v>
       </c>
       <c r="U3">
         <v>790667.5</v>
@@ -16502,13 +16454,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>685360.39266428305</v>
+        <v>684662.07775250054</v>
       </c>
       <c r="X3">
-        <v>62621.218914843463</v>
+        <v>62188.953391397074</v>
       </c>
       <c r="Y3">
-        <v>14911.58666666667</v>
+        <v>15348.27</v>
       </c>
       <c r="Z3">
         <v>135000</v>
@@ -16528,25 +16480,25 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E4">
         <v>478</v>
       </c>
       <c r="F4">
-        <v>1.539144528503436</v>
+        <v>1.5285200289040599</v>
       </c>
       <c r="G4">
-        <v>187.75</v>
+        <v>195.75</v>
       </c>
       <c r="H4">
-        <v>0.1738425925925926</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="I4">
-        <v>234</v>
+        <v>245.75</v>
       </c>
       <c r="J4">
-        <v>0.2166666666666667</v>
+        <v>0.2275462962962963</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -16561,22 +16513,22 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.39050925925925928</v>
+        <v>0.40879629629629632</v>
       </c>
       <c r="P4">
         <v>0.20833333333333329</v>
       </c>
       <c r="Q4">
-        <v>2.1379871210960291</v>
+        <v>2.1456496585336891</v>
       </c>
       <c r="R4">
-        <v>1178.75</v>
+        <v>1256.25</v>
       </c>
       <c r="S4">
-        <v>0.31321071428571429</v>
+        <v>0.33380357142857142</v>
       </c>
       <c r="T4">
-        <v>1916249.9650000001</v>
+        <v>2034576.8013153139</v>
       </c>
       <c r="U4">
         <v>341712.5</v>
@@ -16585,13 +16537,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>260171.17449512499</v>
+        <v>259906.0856269754</v>
       </c>
       <c r="X4">
-        <v>23771.77941382987</v>
+        <v>23607.68614241742</v>
       </c>
       <c r="Y4">
-        <v>13212.86296296296</v>
+        <v>13616.34814814815</v>
       </c>
       <c r="Z4">
         <v>108000</v>
@@ -16611,25 +16563,25 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E5">
         <v>1569</v>
       </c>
       <c r="F5">
-        <v>5.0521292159453788</v>
+        <v>5.0172550739549573</v>
       </c>
       <c r="G5">
-        <v>130.5</v>
+        <v>136.5</v>
       </c>
       <c r="H5">
-        <v>0.13593749999999999</v>
+        <v>0.14218749999999999</v>
       </c>
       <c r="I5">
-        <v>133.25</v>
+        <v>138.75</v>
       </c>
       <c r="J5">
-        <v>0.1388020833333333</v>
+        <v>0.14453125</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16644,22 +16596,22 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.27473958333333331</v>
+        <v>0.28671875000000002</v>
       </c>
       <c r="P5">
         <v>0.20833333333333329</v>
       </c>
       <c r="Q5">
-        <v>5.5352021326120449</v>
+        <v>5.5123071572882907</v>
       </c>
       <c r="R5">
-        <v>1107.5</v>
+        <v>1178.25</v>
       </c>
       <c r="S5">
-        <v>0.29427857142857139</v>
+        <v>0.31307785714285707</v>
       </c>
       <c r="T5">
-        <v>1166379.165</v>
+        <v>1244031.1513319251</v>
       </c>
       <c r="U5">
         <v>189225</v>
@@ -16668,13 +16620,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>853992.83008964662</v>
+        <v>853122.69529021822</v>
       </c>
       <c r="X5">
-        <v>78029.125314433186</v>
+        <v>77490.501166219517</v>
       </c>
       <c r="Y5">
-        <v>10658.52083333333</v>
+        <v>10922.82916666667</v>
       </c>
       <c r="Z5">
         <v>108000</v>
@@ -16694,7 +16646,7 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -16709,10 +16661,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>614</v>
+        <v>652.25</v>
       </c>
       <c r="J6">
-        <v>0.73095238095238102</v>
+        <v>0.77648809523809526</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -16727,19 +16679,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.73095238095238102</v>
+        <v>0.77648809523809526</v>
       </c>
       <c r="P6">
         <v>0.25</v>
       </c>
       <c r="Q6">
-        <v>0.98095238095238102</v>
+        <v>1.026488095238095</v>
       </c>
       <c r="R6">
-        <v>1096.5</v>
+        <v>1168</v>
       </c>
       <c r="S6">
-        <v>0.29135571428571427</v>
+        <v>0.31035428571428569</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -16757,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>21643.73333333333</v>
+        <v>22648.433333333331</v>
       </c>
       <c r="Z6">
         <v>756000</v>
@@ -16777,19 +16729,19 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E7">
         <v>1569</v>
       </c>
       <c r="F7">
-        <v>5.0521292159453788</v>
+        <v>5.0172550739549573</v>
       </c>
       <c r="G7">
-        <v>556.5</v>
+        <v>573</v>
       </c>
       <c r="H7">
-        <v>0.66250000000000009</v>
+        <v>0.68214285714285716</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -16810,13 +16762,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.78303571428571439</v>
+        <v>0.80267857142857146</v>
       </c>
       <c r="P7">
         <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>6.0851649302310928</v>
+        <v>6.0699336453835286</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -16825,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3604328.4125000001</v>
+        <v>3844679.7987654828</v>
       </c>
       <c r="U7">
         <v>830425</v>
@@ -16834,13 +16786,13 @@
         <v>122010</v>
       </c>
       <c r="W7">
-        <v>853992.83008964662</v>
+        <v>853122.69529021822</v>
       </c>
       <c r="X7">
-        <v>78029.125314433186</v>
+        <v>77490.501166219517</v>
       </c>
       <c r="Y7">
-        <v>22792.9</v>
+        <v>23226.3</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -16860,25 +16812,25 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E8">
         <v>478</v>
       </c>
       <c r="F8">
-        <v>1.539144528503436</v>
+        <v>1.5285200289040599</v>
       </c>
       <c r="G8">
-        <v>61.5</v>
+        <v>65.75</v>
       </c>
       <c r="H8">
-        <v>6.4062499999999994E-2</v>
+        <v>6.8489583333333326E-2</v>
       </c>
       <c r="I8">
-        <v>22.5</v>
+        <v>22.75</v>
       </c>
       <c r="J8">
-        <v>2.34375E-2</v>
+        <v>2.3697916666666669E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -16893,22 +16845,22 @@
         <v>7.8125E-3</v>
       </c>
       <c r="O8">
-        <v>9.5312499999999994E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="P8">
         <v>0.20833333333333329</v>
       </c>
       <c r="Q8">
-        <v>1.8427903618367689</v>
+        <v>1.836853362237393</v>
       </c>
       <c r="R8">
-        <v>1184</v>
+        <v>1216.5</v>
       </c>
       <c r="S8">
-        <v>0.31460571428571432</v>
+        <v>0.32324142857142862</v>
       </c>
       <c r="T8">
-        <v>246143.69</v>
+        <v>305307.10815765732</v>
       </c>
       <c r="U8">
         <v>88605</v>
@@ -16917,13 +16869,13 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>260171.17449512499</v>
+        <v>259906.0856269754</v>
       </c>
       <c r="X8">
-        <v>23771.77941382987</v>
+        <v>23607.68614241742</v>
       </c>
       <c r="Y8">
-        <v>6699.6416666666673</v>
+        <v>6803.0666666666684</v>
       </c>
       <c r="Z8">
         <v>108000</v>
@@ -16943,25 +16895,25 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E9">
         <v>1259.1797240000001</v>
       </c>
       <c r="F9">
-        <v>4.0545179552239894</v>
+        <v>4.0265301843595944</v>
       </c>
       <c r="G9">
-        <v>104.75</v>
+        <v>106</v>
       </c>
       <c r="H9">
-        <v>9.6990740740740738E-2</v>
+        <v>9.8148148148148151E-2</v>
       </c>
       <c r="I9">
-        <v>81.25</v>
+        <v>86</v>
       </c>
       <c r="J9">
-        <v>7.5231481481481483E-2</v>
+        <v>7.9629629629629634E-2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -16976,22 +16928,22 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.17222222222222219</v>
+        <v>0.17777777777777781</v>
       </c>
       <c r="P9">
         <v>0.20833333333333329</v>
       </c>
       <c r="Q9">
-        <v>4.4350735107795449</v>
+        <v>4.4126412954707046</v>
       </c>
       <c r="R9">
-        <v>1235.5</v>
+        <v>1275.5</v>
       </c>
       <c r="S9">
-        <v>0.32829000000000003</v>
+        <v>0.33891857142857151</v>
       </c>
       <c r="T9">
-        <v>570833.37</v>
+        <v>589321.93817426788</v>
       </c>
       <c r="U9">
         <v>192330</v>
@@ -17000,13 +16952,13 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>685360.39266428305</v>
+        <v>684662.07775250054</v>
       </c>
       <c r="X9">
-        <v>62621.218914843463</v>
+        <v>62188.953391397074</v>
       </c>
       <c r="Y9">
-        <v>8396.5777777777766</v>
+        <v>8519.1555555555569</v>
       </c>
       <c r="Z9">
         <v>108000</v>
@@ -17026,13 +16978,13 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E10">
         <v>167.926627</v>
       </c>
       <c r="F10">
-        <v>0.54071830363407403</v>
+        <v>0.53698580074435409</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -17041,10 +16993,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>571.25</v>
+        <v>587</v>
       </c>
       <c r="J10">
-        <v>0.4760416666666667</v>
+        <v>0.48916666666666669</v>
       </c>
       <c r="K10">
         <v>120.25</v>
@@ -17059,19 +17011,19 @@
         <v>6.8333333333333343E-2</v>
       </c>
       <c r="O10">
-        <v>0.6445833333333334</v>
+        <v>0.65770833333333334</v>
       </c>
       <c r="P10">
         <v>0.25</v>
       </c>
       <c r="Q10">
-        <v>1.435301636967407</v>
+        <v>1.4446941340776871</v>
       </c>
       <c r="R10">
-        <v>1256.25</v>
+        <v>1289.25</v>
       </c>
       <c r="S10">
-        <v>0.33380357142857142</v>
+        <v>0.34257214285714288</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17083,13 +17035,13 @@
         <v>156325</v>
       </c>
       <c r="W10">
-        <v>91400.978610030899</v>
+        <v>91307.84999186435</v>
       </c>
       <c r="X10">
-        <v>8351.2860559675464</v>
+        <v>8293.6382953363991</v>
       </c>
       <c r="Y10">
-        <v>19738.08666666667</v>
+        <v>20027.67666666667</v>
       </c>
       <c r="Z10">
         <v>135000</v>
@@ -17109,7 +17061,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>12.940088664728799</v>
+        <v>13.030033162827969</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -17124,10 +17076,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.75</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>3.979166666666667E-2</v>
+        <v>4.0833333333333333E-2</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -17142,19 +17094,19 @@
         <v>0.11</v>
       </c>
       <c r="O11">
-        <v>0.14979166666666671</v>
+        <v>0.15083333333333329</v>
       </c>
       <c r="P11">
         <v>0.25</v>
       </c>
       <c r="Q11">
-        <v>0.39979166666666671</v>
+        <v>0.40083333333333332</v>
       </c>
       <c r="R11">
-        <v>341.25</v>
+        <v>343.75</v>
       </c>
       <c r="S11">
-        <v>9.0675000000000006E-2</v>
+        <v>9.133928571428572E-2</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17172,47 +17124,13 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>8821.003333333334</v>
+        <v>8843.986666666664</v>
       </c>
       <c r="Z11">
         <v>108000</v>
       </c>
       <c r="AA11">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="T13" s="3">
-        <f>SUM(T2:T11)</f>
-        <v>14743106.4</v>
-      </c>
-      <c r="U13" s="3">
-        <f>SUM(U2:U11)</f>
-        <v>2710482.5</v>
-      </c>
-      <c r="V13" s="3">
-        <f>SUM(V2:V11)</f>
-        <v>278335</v>
-      </c>
-      <c r="W13" s="3">
-        <f>SUM(W2:W11)</f>
-        <v>3781850.7517181709</v>
-      </c>
-      <c r="X13" s="3">
-        <f>SUM(X2:X11)</f>
-        <v>345546.81939814816</v>
-      </c>
-      <c r="Y13" s="3">
-        <f>SUM(Y2:Y11)</f>
-        <v>135185.68657407403</v>
-      </c>
-      <c r="Z13" s="3">
-        <f>SUM(Z2:Z11)</f>
-        <v>1566000</v>
-      </c>
-      <c r="AA13" s="3">
-        <f>SUM(AA2:AA11)</f>
-        <v>3193140.7755000005</v>
       </c>
     </row>
   </sheetData>
@@ -17222,25 +17140,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -17253,7 +17169,7 @@
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -17262,7 +17178,7 @@
       <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -17286,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>55811528.919999979</v>
+        <v>60448461.818106368</v>
       </c>
       <c r="C2" s="3">
         <v>10141180</v>
@@ -17294,7 +17210,7 @@
       <c r="D2" s="3">
         <v>305825</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>3754</v>
       </c>
       <c r="F2" s="3">
@@ -17303,23 +17219,23 @@
       <c r="G2" s="3">
         <v>6264000</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>11565371.649</v>
       </c>
       <c r="I2" s="3">
-        <v>15188470.711689189</v>
+        <v>15167759.00310098</v>
       </c>
       <c r="J2" s="3">
-        <v>1864954.7187777781</v>
+        <v>1869325.7547777779</v>
       </c>
       <c r="K2" s="3">
         <v>15680000</v>
       </c>
       <c r="L2" s="3">
-        <v>61013556.079466969</v>
+        <v>60997215.406878747</v>
       </c>
       <c r="M2" s="3">
-        <v>-5202027.1594669893</v>
+        <v>-548753.58877238631</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -17327,7 +17243,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>61864906.600000009</v>
+        <v>67019519.406985886</v>
       </c>
       <c r="C3" s="3">
         <v>11559550</v>
@@ -17335,7 +17251,7 @@
       <c r="D3" s="3">
         <v>1058235</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>3754</v>
       </c>
       <c r="F3" s="3">
@@ -17344,23 +17260,23 @@
       <c r="G3" s="3">
         <v>6264000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>13602667.299000001</v>
       </c>
       <c r="I3" s="3">
-        <v>15116814.288589921</v>
+        <v>15099777.84206719</v>
       </c>
       <c r="J3" s="3">
-        <v>1881575.236666667</v>
+        <v>1886395.2356666659</v>
       </c>
       <c r="K3" s="3">
         <v>15680000</v>
       </c>
       <c r="L3" s="3">
-        <v>65166595.824256577</v>
+        <v>65154379.376733862</v>
       </c>
       <c r="M3" s="3">
-        <v>-3301689.2242565751</v>
+        <v>1865140.030252025</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -17368,7 +17284,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>67653625.579999998</v>
+        <v>73599549.10484454</v>
       </c>
       <c r="C4" s="3">
         <v>12083740</v>
@@ -17376,7 +17292,7 @@
       <c r="D4" s="3">
         <v>1604345</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>3754</v>
       </c>
       <c r="F4" s="3">
@@ -17385,23 +17301,23 @@
       <c r="G4" s="3">
         <v>6264000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>14028938.507999999</v>
       </c>
       <c r="I4" s="3">
-        <v>15084000.674168181</v>
+        <v>15068667.08768223</v>
       </c>
       <c r="J4" s="3">
-        <v>1891392.600333333</v>
+        <v>1896999.5705555561</v>
       </c>
       <c r="K4" s="3">
         <v>15680000</v>
       </c>
       <c r="L4" s="3">
-        <v>66640170.782501511</v>
+        <v>66630444.166237786</v>
       </c>
       <c r="M4" s="3">
-        <v>1013454.7974984871</v>
+        <v>6969104.9386067539</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -17409,7 +17325,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>71027536.660000011</v>
+        <v>77350626.975599647</v>
       </c>
       <c r="C5" s="3">
         <v>12563040</v>
@@ -17417,7 +17333,7 @@
       <c r="D5" s="3">
         <v>959905</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>3754</v>
       </c>
       <c r="F5" s="3">
@@ -17426,23 +17342,23 @@
       <c r="G5" s="3">
         <v>6264000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>14444725.581</v>
       </c>
       <c r="I5" s="3">
-        <v>15082925.67812925</v>
+        <v>15066654.451598801</v>
       </c>
       <c r="J5" s="3">
-        <v>1891757.4881111111</v>
+        <v>1897813.6839999999</v>
       </c>
       <c r="K5" s="3">
         <v>15680000</v>
       </c>
       <c r="L5" s="3">
-        <v>66890107.747240357</v>
+        <v>66879892.716598786</v>
       </c>
       <c r="M5" s="3">
-        <v>4137428.9127596542</v>
+        <v>10470734.259000851</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -17450,7 +17366,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>74031778.160000011</v>
+        <v>78964528.148894697</v>
       </c>
       <c r="C6" s="3">
         <v>12705000</v>
@@ -17458,7 +17374,7 @@
       <c r="D6" s="3">
         <v>1453765</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>3754</v>
       </c>
       <c r="F6" s="3">
@@ -17467,23 +17383,23 @@
       <c r="G6" s="3">
         <v>6264000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>14384716.125</v>
       </c>
       <c r="I6" s="3">
-        <v>15062002.52145737</v>
+        <v>15052378.1388276</v>
       </c>
       <c r="J6" s="3">
-        <v>1899788.2587777779</v>
+        <v>1904425.5731111111</v>
       </c>
       <c r="K6" s="3">
         <v>15680000</v>
       </c>
       <c r="L6" s="3">
-        <v>67453025.905235142</v>
+        <v>67448038.836938709</v>
       </c>
       <c r="M6" s="3">
-        <v>6578752.2547648698</v>
+        <v>11516489.31195599</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -17491,7 +17407,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>58972425.600000001</v>
+        <v>63320936.83458782</v>
       </c>
       <c r="C7" s="3">
         <v>10841930</v>
@@ -17499,7 +17415,7 @@
       <c r="D7" s="3">
         <v>1113340</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>3754</v>
       </c>
       <c r="F7" s="3">
@@ -17508,23 +17424,23 @@
       <c r="G7" s="3">
         <v>6264000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>12772563.102</v>
       </c>
       <c r="I7" s="3">
-        <v>15127403.006872689</v>
+        <v>15111989.669292459</v>
       </c>
       <c r="J7" s="3">
-        <v>1878802.023888889</v>
+        <v>1882891.043444444</v>
       </c>
       <c r="K7" s="3">
         <v>15680000</v>
       </c>
       <c r="L7" s="3">
-        <v>63681792.132761583</v>
+        <v>63670467.81473691</v>
       </c>
       <c r="M7" s="3">
-        <v>-4709366.5327615738</v>
+        <v>-349530.98014909029</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -17532,7 +17448,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>63600827.369999997</v>
+        <v>68777626.458795011</v>
       </c>
       <c r="C8" s="3">
         <v>11725770</v>
@@ -17540,7 +17456,7 @@
       <c r="D8" s="3">
         <v>1337155</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>3754</v>
       </c>
       <c r="F8" s="3">
@@ -17549,23 +17465,23 @@
       <c r="G8" s="3">
         <v>6264000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>14065375.077</v>
       </c>
       <c r="I8" s="3">
-        <v>15092650.0847944</v>
+        <v>15078484.648422411</v>
       </c>
       <c r="J8" s="3">
-        <v>1888576.9231111109</v>
+        <v>1893305.076333333</v>
       </c>
       <c r="K8" s="3">
         <v>15680000</v>
       </c>
       <c r="L8" s="3">
-        <v>66057281.084905513</v>
+        <v>66047843.801755741</v>
       </c>
       <c r="M8" s="3">
-        <v>-2456453.7149055079</v>
+        <v>2729782.6570392698</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -17573,7 +17489,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>70795999.129999995</v>
+        <v>75085346.946430162</v>
       </c>
       <c r="C9" s="3">
         <v>12758240</v>
@@ -17581,7 +17497,7 @@
       <c r="D9" s="3">
         <v>1158595</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>3754</v>
       </c>
       <c r="F9" s="3">
@@ -17590,23 +17506,23 @@
       <c r="G9" s="3">
         <v>6264000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>14828551.764</v>
       </c>
       <c r="I9" s="3">
-        <v>15071086.45355957</v>
+        <v>15061399.01570829</v>
       </c>
       <c r="J9" s="3">
-        <v>1896048.979888889</v>
+        <v>1900055.084333333</v>
       </c>
       <c r="K9" s="3">
         <v>15680000</v>
       </c>
       <c r="L9" s="3">
-        <v>67660276.197448462</v>
+        <v>67654594.864041626</v>
       </c>
       <c r="M9" s="3">
-        <v>3135722.932551533</v>
+        <v>7430752.0823885351</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -17614,7 +17530,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>51115455.930000022</v>
+        <v>54576515.892222993</v>
       </c>
       <c r="C10" s="3">
         <v>9075810</v>
@@ -17622,7 +17538,7 @@
       <c r="D10" s="3">
         <v>495725</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>3754</v>
       </c>
       <c r="F10" s="3">
@@ -17631,23 +17547,23 @@
       <c r="G10" s="3">
         <v>6264000</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>10202212.643999999</v>
       </c>
       <c r="I10" s="3">
-        <v>15220932.39561414</v>
+        <v>15204446.59760334</v>
       </c>
       <c r="J10" s="3">
-        <v>1858582.578666667</v>
+        <v>1861753.7752222221</v>
       </c>
       <c r="K10" s="3">
         <v>15680000</v>
       </c>
       <c r="L10" s="3">
-        <v>58801016.618280813</v>
+        <v>58787702.016825557</v>
       </c>
       <c r="M10" s="3">
-        <v>-7685560.6882807836</v>
+        <v>-4211186.1246025711</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -17655,7 +17571,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>63960973.450000003</v>
+        <v>69063818.266097918</v>
       </c>
       <c r="C11" s="3">
         <v>11962780</v>
@@ -17663,7 +17579,7 @@
       <c r="D11" s="3">
         <v>1141075</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>3754</v>
       </c>
       <c r="F11" s="3">
@@ -17672,23 +17588,23 @@
       <c r="G11" s="3">
         <v>6264000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>14671677.345000001</v>
       </c>
       <c r="I11" s="3">
-        <v>15094054.3324217</v>
+        <v>15080117.014354531</v>
       </c>
       <c r="J11" s="3">
-        <v>1888138.0290000001</v>
+        <v>1892728.413555556</v>
       </c>
       <c r="K11" s="3">
         <v>15680000</v>
       </c>
       <c r="L11" s="3">
-        <v>66705478.706421703</v>
+        <v>66696131.772910103</v>
       </c>
       <c r="M11" s="3">
-        <v>-2744505.256421708</v>
+        <v>2367686.4931878219</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -17696,7 +17612,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>58858142.24000001</v>
+        <v>63716937.956197619</v>
       </c>
       <c r="C12" s="3">
         <v>11122140</v>
@@ -17704,7 +17620,7 @@
       <c r="D12" s="3">
         <v>2566775</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>3754</v>
       </c>
       <c r="F12" s="3">
@@ -17713,23 +17629,23 @@
       <c r="G12" s="3">
         <v>6264000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>13362794.718</v>
       </c>
       <c r="I12" s="3">
-        <v>15071260.75100407</v>
+        <v>15060554.549128851</v>
       </c>
       <c r="J12" s="3">
-        <v>1895981.605888888</v>
+        <v>1900432.996</v>
       </c>
       <c r="K12" s="3">
         <v>15680000</v>
       </c>
       <c r="L12" s="3">
-        <v>65966706.074892953</v>
+        <v>65960451.263128847</v>
       </c>
       <c r="M12" s="3">
-        <v>-7108563.8348929444</v>
+        <v>-2243513.3069312349</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -17737,7 +17653,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>64591395.000000007</v>
+        <v>69620285.543400869</v>
       </c>
       <c r="C13" s="3">
         <v>12095170</v>
@@ -17745,7 +17661,7 @@
       <c r="D13" s="3">
         <v>593825</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>3754</v>
       </c>
       <c r="F13" s="3">
@@ -17754,29 +17670,46 @@
       <c r="G13" s="3">
         <v>6264000</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>14806172.043000011</v>
       </c>
       <c r="I13" s="3">
-        <v>15100839.845326889</v>
+        <v>15086504.562637219</v>
       </c>
       <c r="J13" s="3">
-        <v>1886079.488444444</v>
+        <v>1890556.247777778</v>
       </c>
       <c r="K13" s="3">
         <v>15680000</v>
       </c>
       <c r="L13" s="3">
-        <v>66429840.376771338</v>
+        <v>66419981.853414997</v>
       </c>
       <c r="M13" s="3">
-        <v>-1838445.3767713311</v>
-      </c>
+        <v>3200303.6899858639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B15" s="3">
         <f t="shared" ref="B15:M15" si="0">SUM(B2:B13)</f>
-        <v>762284594.6400001</v>
+        <v>821544153.35216355</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
@@ -17786,7 +17719,7 @@
         <f t="shared" si="0"/>
         <v>13788565</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>45048</v>
       </c>
@@ -17798,17 +17731,17 @@
         <f t="shared" si="0"/>
         <v>75168000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>162735765.85499999</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>181312440.74362737</v>
+        <v>181138732.58042392</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>22621677.931555558</v>
+        <v>22676682.454777777</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
@@ -17816,37 +17749,35 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="0"/>
-        <v>782465847.53018296</v>
+        <v>782347143.89020169</v>
       </c>
       <c r="M15" s="3">
         <f>SUM(M2:M13)</f>
-        <v>-20181252.890182868</v>
+        <v>39197009.461961828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>5.0912829500196581</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>53</v>
+        <v>-1.2261821549439109E-10</v>
       </c>
     </row>
   </sheetData>
@@ -17856,12 +17787,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P801"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -17915,7 +17843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -18009,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -18099,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -18189,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -18279,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -18371,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -18461,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -18551,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -18641,7 +18569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>35</v>
@@ -18733,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -18787,43 +18715,43 @@
         <v>60</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -18913,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -18967,43 +18895,43 @@
         <v>60</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
@@ -19095,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -19149,43 +19077,43 @@
         <v>60</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -19275,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -19365,7 +19293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>37</v>
@@ -19457,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -19511,43 +19439,43 @@
         <v>60</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -19637,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -19727,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>38</v>
@@ -19819,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
@@ -19909,7 +19837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
@@ -19999,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -20089,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>39</v>
@@ -20181,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -20271,7 +20199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -20361,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -20451,7 +20379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>40</v>
@@ -20543,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -20633,7 +20561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -20723,7 +20651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
@@ -20813,7 +20741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>41</v>
@@ -20905,7 +20833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
@@ -20995,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
@@ -21085,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
@@ -21175,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>42</v>
@@ -21267,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
@@ -21357,7 +21285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
@@ -21447,7 +21375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
@@ -21537,7 +21465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>34</v>
       </c>
@@ -21631,7 +21559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
@@ -21721,7 +21649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
@@ -21811,7 +21739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
@@ -21901,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>34</v>
@@ -21993,7 +21921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
@@ -22083,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
@@ -22173,7 +22101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
@@ -22263,7 +22191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>35</v>
@@ -22355,7 +22283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
@@ -22409,43 +22337,43 @@
         <v>60</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -22535,7 +22463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
@@ -22589,43 +22517,43 @@
         <v>60</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>36</v>
@@ -22717,7 +22645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
@@ -22771,43 +22699,43 @@
         <v>60</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
@@ -22897,7 +22825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
@@ -22951,34 +22879,34 @@
         <v>60</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -22987,7 +22915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>37</v>
@@ -23079,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
@@ -23133,43 +23061,43 @@
         <v>60</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
@@ -23259,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
@@ -23313,43 +23241,43 @@
         <v>60</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>38</v>
@@ -23441,7 +23369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
@@ -23531,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
@@ -23621,7 +23549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
@@ -23711,7 +23639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>39</v>
@@ -23803,7 +23731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
@@ -23893,7 +23821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
@@ -23983,7 +23911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
@@ -24073,7 +24001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>40</v>
@@ -24165,7 +24093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
@@ -24255,7 +24183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
@@ -24345,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
@@ -24435,7 +24363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
         <v>41</v>
@@ -24527,7 +24455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -24617,7 +24545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
@@ -24707,7 +24635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
@@ -24797,7 +24725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>42</v>
@@ -24889,7 +24817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
@@ -24979,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
@@ -25069,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
@@ -25159,7 +25087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>35</v>
       </c>
@@ -25253,7 +25181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
@@ -25343,7 +25271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
@@ -25433,7 +25361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
@@ -25523,7 +25451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>34</v>
@@ -25615,7 +25543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
@@ -25705,7 +25633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
@@ -25795,7 +25723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
@@ -25885,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
         <v>35</v>
@@ -25977,7 +25905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
@@ -26067,7 +25995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
@@ -26157,7 +26085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
@@ -26247,7 +26175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
         <v>36</v>
@@ -26339,7 +26267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
@@ -26408,10 +26336,10 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -26429,7 +26357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
@@ -26519,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
@@ -26609,7 +26537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
         <v>37</v>
@@ -26701,7 +26629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="s">
@@ -26755,43 +26683,43 @@
         <v>60</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O197">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="P197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
@@ -26881,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -26971,7 +26899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
         <v>38</v>
@@ -27063,7 +26991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -27153,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -27243,7 +27171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -27333,7 +27261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
         <v>39</v>
@@ -27425,7 +27353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -27515,7 +27443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -27605,7 +27533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -27695,7 +27623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
         <v>40</v>
@@ -27787,7 +27715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -27877,7 +27805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -27967,7 +27895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -28057,7 +27985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
         <v>41</v>
@@ -28149,7 +28077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -28239,7 +28167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -28329,7 +28257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -28419,7 +28347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
         <v>42</v>
@@ -28511,7 +28439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2" t="s">
@@ -28601,7 +28529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2" t="s">
@@ -28691,7 +28619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2" t="s">
@@ -28781,7 +28709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>36</v>
       </c>
@@ -28875,7 +28803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
@@ -28965,7 +28893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
@@ -29055,7 +28983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2" t="s">
@@ -29145,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
         <v>34</v>
@@ -29237,7 +29165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2" t="s">
@@ -29327,7 +29255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
@@ -29417,7 +29345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
@@ -29507,7 +29435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
         <v>35</v>
@@ -29599,7 +29527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
@@ -29689,7 +29617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
@@ -29779,7 +29707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="s">
@@ -29869,7 +29797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
         <v>36</v>
@@ -29961,7 +29889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2" t="s">
@@ -30051,7 +29979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
@@ -30141,7 +30069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
@@ -30231,7 +30159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
         <v>37</v>
@@ -30323,7 +30251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
@@ -30377,43 +30305,43 @@
         <v>60</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K277">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L277">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M277">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N277">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O277">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
@@ -30503,7 +30431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
@@ -30557,43 +30485,43 @@
         <v>60</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
         <v>38</v>
@@ -30685,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
@@ -30775,7 +30703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
@@ -30865,7 +30793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
@@ -30955,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
         <v>39</v>
@@ -31047,7 +30975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2" t="s">
@@ -31137,7 +31065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2" t="s">
@@ -31227,7 +31155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2" t="s">
@@ -31317,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
         <v>40</v>
@@ -31409,7 +31337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2" t="s">
@@ -31499,7 +31427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2" t="s">
@@ -31589,7 +31517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2" t="s">
@@ -31679,7 +31607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
         <v>41</v>
@@ -31771,7 +31699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2" t="s">
@@ -31861,7 +31789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2" t="s">
@@ -31951,7 +31879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2" t="s">
@@ -32041,7 +31969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
         <v>42</v>
@@ -32133,7 +32061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2" t="s">
@@ -32223,7 +32151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
@@ -32313,7 +32241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2" t="s">
@@ -32403,7 +32331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>37</v>
       </c>
@@ -32497,7 +32425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2" t="s">
@@ -32587,7 +32515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2" t="s">
@@ -32677,7 +32605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2" t="s">
@@ -32767,7 +32695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
         <v>34</v>
@@ -32859,7 +32787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2" t="s">
@@ -32949,7 +32877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2" t="s">
@@ -33039,7 +32967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
@@ -33129,7 +33057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
         <v>35</v>
@@ -33221,7 +33149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
@@ -33311,7 +33239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2" t="s">
@@ -33401,7 +33329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2" t="s">
@@ -33491,7 +33419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
         <v>36</v>
@@ -33583,7 +33511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2" t="s">
@@ -33673,7 +33601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2" t="s">
@@ -33763,7 +33691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2" t="s">
@@ -33853,7 +33781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
         <v>37</v>
@@ -33945,7 +33873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2" t="s">
@@ -34035,7 +33963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2" t="s">
@@ -34125,7 +34053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2" t="s">
@@ -34215,7 +34143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
         <v>38</v>
@@ -34307,7 +34235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2" t="s">
@@ -34397,7 +34325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2" t="s">
@@ -34487,7 +34415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2" t="s">
@@ -34577,7 +34505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2" t="s">
         <v>39</v>
@@ -34669,7 +34597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2" t="s">
@@ -34759,7 +34687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2" t="s">
@@ -34849,7 +34777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2" t="s">
@@ -34939,7 +34867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2" t="s">
         <v>40</v>
@@ -35031,7 +34959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2" t="s">
@@ -35121,7 +35049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2" t="s">
@@ -35211,7 +35139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2" t="s">
@@ -35301,7 +35229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2" t="s">
         <v>41</v>
@@ -35393,7 +35321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2" t="s">
@@ -35483,7 +35411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2" t="s">
@@ -35573,7 +35501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2" t="s">
@@ -35663,7 +35591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2" t="s">
         <v>42</v>
@@ -35755,7 +35683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2" t="s">
@@ -35845,7 +35773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2" t="s">
@@ -35935,7 +35863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2" t="s">
@@ -36025,7 +35953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>38</v>
       </c>
@@ -36119,7 +36047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2" t="s">
@@ -36209,7 +36137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2" t="s">
@@ -36299,7 +36227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2" t="s">
@@ -36389,7 +36317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2" t="s">
         <v>34</v>
@@ -36481,7 +36409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2" t="s">
@@ -36571,7 +36499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2" t="s">
@@ -36661,7 +36589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2" t="s">
@@ -36751,7 +36679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2" t="s">
         <v>35</v>
@@ -36843,7 +36771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2" t="s">
@@ -36933,7 +36861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2" t="s">
@@ -37023,7 +36951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2" t="s">
@@ -37113,7 +37041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2" t="s">
         <v>36</v>
@@ -37205,7 +37133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2" t="s">
@@ -37295,7 +37223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2" t="s">
@@ -37385,7 +37313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2" t="s">
@@ -37475,7 +37403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2" t="s">
         <v>37</v>
@@ -37567,7 +37495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2" t="s">
@@ -37657,7 +37585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2" t="s">
@@ -37747,7 +37675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2" t="s">
@@ -37837,7 +37765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2" t="s">
         <v>38</v>
@@ -37929,7 +37857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2" t="s">
@@ -38019,7 +37947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2" t="s">
@@ -38109,7 +38037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2" t="s">
@@ -38199,7 +38127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2" t="s">
         <v>39</v>
@@ -38291,7 +38219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2" t="s">
@@ -38345,25 +38273,25 @@
         <v>60</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F453">
         <v>0</v>
       </c>
       <c r="G453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H453">
         <v>0</v>
       </c>
       <c r="I453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L453">
         <v>0</v>
@@ -38381,7 +38309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2" t="s">
@@ -38471,7 +38399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2" t="s">
@@ -38561,7 +38489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2" t="s">
         <v>40</v>
@@ -38653,7 +38581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2" t="s">
@@ -38707,43 +38635,43 @@
         <v>60</v>
       </c>
       <c r="E461">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F461">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G461">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I461">
         <v>0</v>
       </c>
       <c r="J461">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K461">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L461">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M461">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O461">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2" t="s">
@@ -38833,7 +38761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2" t="s">
@@ -38923,7 +38851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2" t="s">
         <v>41</v>
@@ -39015,7 +38943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2" t="s">
@@ -39069,43 +38997,43 @@
         <v>60</v>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F469">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G469">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I469">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J469">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K469">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L469">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M469">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N469">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O469">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2" t="s">
@@ -39195,7 +39123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2" t="s">
@@ -39249,34 +39177,34 @@
         <v>60</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G473">
         <v>0</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I473">
         <v>0</v>
       </c>
       <c r="J473">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K473">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M473">
         <v>0</v>
       </c>
       <c r="N473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O473">
         <v>0</v>
@@ -39285,7 +39213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2" t="s">
         <v>42</v>
@@ -39377,7 +39305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2" t="s">
@@ -39434,28 +39362,28 @@
         <v>0</v>
       </c>
       <c r="F477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G477">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477">
         <v>0</v>
       </c>
       <c r="J477">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K477">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L477">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M477">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N477">
         <v>0</v>
@@ -39467,7 +39395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2" t="s">
@@ -39557,7 +39485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2" t="s">
@@ -39647,7 +39575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>39</v>
       </c>
@@ -39741,7 +39669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2" t="s">
@@ -39831,7 +39759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2" t="s">
@@ -39921,7 +39849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
@@ -40011,7 +39939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2" t="s">
         <v>34</v>
@@ -40103,7 +40031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2" t="s">
@@ -40193,7 +40121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2" t="s">
@@ -40283,7 +40211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2" t="s">
@@ -40373,7 +40301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2" t="s">
         <v>35</v>
@@ -40465,7 +40393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2" t="s">
@@ -40555,7 +40483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2" t="s">
@@ -40645,7 +40573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2" t="s">
@@ -40735,7 +40663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2" t="s">
         <v>36</v>
@@ -40827,7 +40755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2" t="s">
@@ -40917,7 +40845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2" t="s">
@@ -41007,7 +40935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2" t="s">
@@ -41097,7 +41025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2" t="s">
         <v>37</v>
@@ -41189,7 +41117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2" t="s">
@@ -41279,7 +41207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2" t="s">
@@ -41369,7 +41297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2" t="s">
@@ -41459,7 +41387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2" t="s">
         <v>38</v>
@@ -41551,7 +41479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2" t="s">
@@ -41641,7 +41569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2" t="s">
@@ -41731,7 +41659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2" t="s">
@@ -41821,7 +41749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2" t="s">
         <v>39</v>
@@ -41913,7 +41841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2" t="s">
@@ -42003,7 +41931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2" t="s">
@@ -42093,7 +42021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2" t="s">
@@ -42183,7 +42111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2" t="s">
         <v>40</v>
@@ -42275,7 +42203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2" t="s">
@@ -42365,7 +42293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2" t="s">
@@ -42455,7 +42383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2" t="s">
@@ -42545,7 +42473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2" t="s">
         <v>41</v>
@@ -42637,7 +42565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2" t="s">
@@ -42691,43 +42619,43 @@
         <v>60</v>
       </c>
       <c r="E549">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F549">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G549">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I549">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J549">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K549">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L549">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M549">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N549">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O549">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P549">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2" t="s">
@@ -42817,7 +42745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2" t="s">
@@ -42871,43 +42799,43 @@
         <v>60</v>
       </c>
       <c r="E553">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F553">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G553">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I553">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J553">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K553">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L553">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M553">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N553">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O553">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P553">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2" t="s">
         <v>42</v>
@@ -42999,7 +42927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2" t="s">
@@ -43089,7 +43017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2" t="s">
@@ -43179,7 +43107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2" t="s">
@@ -43269,7 +43197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>40</v>
       </c>
@@ -43363,7 +43291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2" t="s">
@@ -43453,7 +43381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2" t="s">
@@ -43543,7 +43471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2" t="s">
@@ -43633,7 +43561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2" t="s">
         <v>34</v>
@@ -43725,7 +43653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2" t="s">
@@ -43815,7 +43743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2" t="s">
@@ -43905,7 +43833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2" t="s">
@@ -43995,7 +43923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2" t="s">
         <v>35</v>
@@ -44087,7 +44015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2" t="s">
@@ -44177,7 +44105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2" t="s">
@@ -44267,7 +44195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2" t="s">
@@ -44357,7 +44285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2" t="s">
         <v>36</v>
@@ -44449,7 +44377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2" t="s">
@@ -44539,7 +44467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2" t="s">
@@ -44629,7 +44557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2" t="s">
@@ -44719,7 +44647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2" t="s">
         <v>37</v>
@@ -44811,7 +44739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2" t="s">
@@ -44901,7 +44829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2" t="s">
@@ -44991,7 +44919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2" t="s">
@@ -45081,7 +45009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2" t="s">
         <v>38</v>
@@ -45173,7 +45101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2" t="s">
@@ -45263,7 +45191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2" t="s">
@@ -45353,7 +45281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2" t="s">
@@ -45443,7 +45371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2" t="s">
         <v>39</v>
@@ -45535,7 +45463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2" t="s">
@@ -45625,7 +45553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2" t="s">
@@ -45715,7 +45643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2" t="s">
@@ -45805,7 +45733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2" t="s">
         <v>40</v>
@@ -45897,7 +45825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2" t="s">
@@ -45987,7 +45915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2" t="s">
@@ -46077,7 +46005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2" t="s">
@@ -46167,7 +46095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2" t="s">
         <v>41</v>
@@ -46259,7 +46187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2" t="s">
@@ -46313,43 +46241,43 @@
         <v>60</v>
       </c>
       <c r="E629">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G629">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I629">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J629">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K629">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L629">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M629">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N629">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O629">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P629">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2" t="s">
@@ -46439,7 +46367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2" t="s">
@@ -46493,34 +46421,34 @@
         <v>60</v>
       </c>
       <c r="E633">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J633">
         <v>0</v>
       </c>
       <c r="K633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O633">
         <v>0</v>
@@ -46529,7 +46457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2" t="s">
         <v>42</v>
@@ -46621,7 +46549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2" t="s">
@@ -46711,7 +46639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2" t="s">
@@ -46801,7 +46729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2" t="s">
@@ -46891,7 +46819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>41</v>
       </c>
@@ -46985,7 +46913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2" t="s">
@@ -47075,7 +47003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2" t="s">
@@ -47165,7 +47093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2" t="s">
@@ -47255,7 +47183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2" t="s">
         <v>34</v>
@@ -47347,7 +47275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2" t="s">
@@ -47437,7 +47365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2" t="s">
@@ -47527,7 +47455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2" t="s">
@@ -47617,7 +47545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2" t="s">
         <v>35</v>
@@ -47709,7 +47637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2" t="s">
@@ -47799,7 +47727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2" t="s">
@@ -47889,7 +47817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2" t="s">
@@ -47979,7 +47907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2" t="s">
         <v>36</v>
@@ -48071,7 +47999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2" t="s">
@@ -48161,7 +48089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2" t="s">
@@ -48251,7 +48179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2" t="s">
@@ -48341,7 +48269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2" t="s">
         <v>37</v>
@@ -48433,7 +48361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2" t="s">
@@ -48523,7 +48451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2" t="s">
@@ -48613,7 +48541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2" t="s">
@@ -48703,7 +48631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2" t="s">
         <v>38</v>
@@ -48795,7 +48723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2" t="s">
@@ -48885,7 +48813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2" t="s">
@@ -48975,7 +48903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2" t="s">
@@ -49065,7 +48993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2" t="s">
         <v>39</v>
@@ -49157,7 +49085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2" t="s">
@@ -49247,7 +49175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2" t="s">
@@ -49337,7 +49265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2" t="s">
@@ -49427,7 +49355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2" t="s">
         <v>40</v>
@@ -49519,7 +49447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2" t="s">
@@ -49609,7 +49537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2" t="s">
@@ -49699,7 +49627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2" t="s">
@@ -49789,7 +49717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2" t="s">
         <v>41</v>
@@ -49881,7 +49809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2" t="s">
@@ -49971,7 +49899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2" t="s">
@@ -50061,7 +49989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2" t="s">
@@ -50151,7 +50079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2" t="s">
         <v>42</v>
@@ -50243,7 +50171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2" t="s">
@@ -50333,7 +50261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2" t="s">
@@ -50423,7 +50351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2" t="s">
@@ -50513,7 +50441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>42</v>
       </c>
@@ -50607,7 +50535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2" t="s">
@@ -50697,7 +50625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2" t="s">
@@ -50787,7 +50715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2" t="s">
@@ -50877,7 +50805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2" t="s">
         <v>34</v>
@@ -50969,7 +50897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2" t="s">
@@ -51059,7 +50987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2" t="s">
@@ -51149,7 +51077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2" t="s">
@@ -51239,7 +51167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2" t="s">
         <v>35</v>
@@ -51331,7 +51259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2" t="s">
@@ -51421,7 +51349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2" t="s">
@@ -51511,7 +51439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2" t="s">
@@ -51601,7 +51529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2" t="s">
         <v>36</v>
@@ -51693,7 +51621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2" t="s">
@@ -51783,7 +51711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2" t="s">
@@ -51873,7 +51801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2" t="s">
@@ -51963,7 +51891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2" t="s">
         <v>37</v>
@@ -52055,7 +51983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2" t="s">
@@ -52145,7 +52073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2" t="s">
@@ -52235,7 +52163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2" t="s">
@@ -52325,7 +52253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2" t="s">
         <v>38</v>
@@ -52417,7 +52345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2" t="s">
@@ -52507,7 +52435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2" t="s">
@@ -52597,7 +52525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2" t="s">
@@ -52687,7 +52615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2" t="s">
         <v>39</v>
@@ -52779,7 +52707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2" t="s">
@@ -52869,7 +52797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2" t="s">
@@ -52959,7 +52887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2" t="s">
@@ -53049,7 +52977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2" t="s">
         <v>40</v>
@@ -53141,7 +53069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2" t="s">
@@ -53231,7 +53159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2" t="s">
@@ -53321,7 +53249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2" t="s">
@@ -53411,7 +53339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2" t="s">
         <v>41</v>
@@ -53503,7 +53431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2" t="s">
@@ -53593,7 +53521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2" t="s">
@@ -53683,7 +53611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2" t="s">
@@ -53773,7 +53701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2" t="s">
         <v>42</v>
@@ -53865,7 +53793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2" t="s">
@@ -53955,7 +53883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2" t="s">
@@ -54045,7 +53973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2" t="s">
@@ -54136,13 +54064,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P801" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="C_02"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="510">
     <mergeCell ref="C798:C799"/>
     <mergeCell ref="C108:C109"/>
@@ -73169,9 +73090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -73262,40 +73181,40 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <v>1105</v>
+        <v>1184</v>
       </c>
       <c r="C3">
-        <v>1516</v>
+        <v>1695</v>
       </c>
       <c r="D3">
-        <v>1456</v>
+        <v>1623</v>
       </c>
       <c r="E3">
-        <v>1365</v>
+        <v>1542</v>
       </c>
       <c r="F3">
-        <v>1333</v>
+        <v>1572</v>
       </c>
       <c r="G3">
-        <v>1143</v>
+        <v>1283</v>
       </c>
       <c r="H3">
-        <v>1217</v>
+        <v>1423</v>
       </c>
       <c r="I3">
-        <v>1130</v>
+        <v>1267</v>
       </c>
       <c r="J3">
-        <v>1132</v>
+        <v>1262</v>
       </c>
       <c r="K3">
-        <v>1023</v>
+        <v>1219</v>
       </c>
       <c r="L3">
-        <v>1037</v>
+        <v>1225</v>
       </c>
       <c r="M3">
-        <v>930</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -73303,40 +73222,40 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>4668</v>
+        <v>4939</v>
       </c>
       <c r="C4">
-        <v>5529</v>
+        <v>5966</v>
       </c>
       <c r="D4">
-        <v>6116</v>
+        <v>6625</v>
       </c>
       <c r="E4">
-        <v>6207</v>
+        <v>6723</v>
       </c>
       <c r="F4">
-        <v>6219</v>
+        <v>6645</v>
       </c>
       <c r="G4">
-        <v>4715</v>
+        <v>5025</v>
       </c>
       <c r="H4">
-        <v>5003</v>
+        <v>5350</v>
       </c>
       <c r="I4">
-        <v>5478</v>
+        <v>5769</v>
       </c>
       <c r="J4">
-        <v>4567</v>
+        <v>4815</v>
       </c>
       <c r="K4">
-        <v>5460</v>
+        <v>5902</v>
       </c>
       <c r="L4">
-        <v>4659</v>
+        <v>5032</v>
       </c>
       <c r="M4">
-        <v>4834</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -73344,40 +73263,40 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>4513</v>
+        <v>4836</v>
       </c>
       <c r="C5">
-        <v>4649</v>
+        <v>5052</v>
       </c>
       <c r="D5">
-        <v>5785</v>
+        <v>6257</v>
       </c>
       <c r="E5">
-        <v>6177</v>
+        <v>6624</v>
       </c>
       <c r="F5">
-        <v>6799</v>
+        <v>7219</v>
       </c>
       <c r="G5">
-        <v>4430</v>
+        <v>4713</v>
       </c>
       <c r="H5">
-        <v>4596</v>
+        <v>4904</v>
       </c>
       <c r="I5">
-        <v>5807</v>
+        <v>6105</v>
       </c>
       <c r="J5">
-        <v>4698</v>
+        <v>4927</v>
       </c>
       <c r="K5">
-        <v>4838</v>
+        <v>5212</v>
       </c>
       <c r="L5">
-        <v>5425</v>
+        <v>5797</v>
       </c>
       <c r="M5">
-        <v>4742</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -73385,40 +73304,40 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>4567</v>
+        <v>4913</v>
       </c>
       <c r="C6">
-        <v>4103</v>
+        <v>4491</v>
       </c>
       <c r="D6">
-        <v>5379</v>
+        <v>5836</v>
       </c>
       <c r="E6">
-        <v>5856</v>
+        <v>6296</v>
       </c>
       <c r="F6">
-        <v>6808</v>
+        <v>7257</v>
       </c>
       <c r="G6">
-        <v>4386</v>
+        <v>4672</v>
       </c>
       <c r="H6">
-        <v>4586</v>
+        <v>4865</v>
       </c>
       <c r="I6">
-        <v>5656</v>
+        <v>5938</v>
       </c>
       <c r="J6">
-        <v>4736</v>
+        <v>4958</v>
       </c>
       <c r="K6">
-        <v>4138</v>
+        <v>4446</v>
       </c>
       <c r="L6">
-        <v>5601</v>
+        <v>5967</v>
       </c>
       <c r="M6">
-        <v>4400</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -73467,40 +73386,40 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>3961</v>
+        <v>4092</v>
       </c>
       <c r="C8">
-        <v>4907</v>
+        <v>4984</v>
       </c>
       <c r="D8">
-        <v>4671</v>
+        <v>4781</v>
       </c>
       <c r="E8">
-        <v>4816</v>
+        <v>4982</v>
       </c>
       <c r="F8">
-        <v>5616</v>
+        <v>5624</v>
       </c>
       <c r="G8">
-        <v>4736</v>
+        <v>4866</v>
       </c>
       <c r="H8">
-        <v>5730</v>
+        <v>5922</v>
       </c>
       <c r="I8">
-        <v>5996</v>
+        <v>6137</v>
       </c>
       <c r="J8">
-        <v>2842</v>
+        <v>2930</v>
       </c>
       <c r="K8">
-        <v>5346</v>
+        <v>5367</v>
       </c>
       <c r="L8">
-        <v>5329</v>
+        <v>5349</v>
       </c>
       <c r="M8">
-        <v>6266</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -73508,40 +73427,40 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>4041</v>
+        <v>4176</v>
       </c>
       <c r="C9">
-        <v>5094</v>
+        <v>5193</v>
       </c>
       <c r="D9">
-        <v>4862</v>
+        <v>4990</v>
       </c>
       <c r="E9">
-        <v>4995</v>
+        <v>5198</v>
       </c>
       <c r="F9">
-        <v>5668</v>
+        <v>5722</v>
       </c>
       <c r="G9">
-        <v>4942</v>
+        <v>5102</v>
       </c>
       <c r="H9">
-        <v>5849</v>
+        <v>6071</v>
       </c>
       <c r="I9">
-        <v>6149</v>
+        <v>6312</v>
       </c>
       <c r="J9">
-        <v>3040</v>
+        <v>3140</v>
       </c>
       <c r="K9">
-        <v>5735</v>
+        <v>5823</v>
       </c>
       <c r="L9">
-        <v>5553</v>
+        <v>5639</v>
       </c>
       <c r="M9">
-        <v>6531</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -73549,40 +73468,40 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>3735</v>
+        <v>3890</v>
       </c>
       <c r="C10">
-        <v>4644</v>
+        <v>4734</v>
       </c>
       <c r="D10">
-        <v>6327</v>
+        <v>6454</v>
       </c>
       <c r="E10">
-        <v>4860</v>
+        <v>5043</v>
       </c>
       <c r="F10">
-        <v>6009</v>
+        <v>6068</v>
       </c>
       <c r="G10">
-        <v>5025</v>
+        <v>5157</v>
       </c>
       <c r="H10">
-        <v>5853</v>
+        <v>6078</v>
       </c>
       <c r="I10">
-        <v>5935</v>
+        <v>6095</v>
       </c>
       <c r="J10">
-        <v>3129</v>
+        <v>3254</v>
       </c>
       <c r="K10">
-        <v>5731</v>
+        <v>5858</v>
       </c>
       <c r="L10">
-        <v>5703</v>
+        <v>5793</v>
       </c>
       <c r="M10">
-        <v>6504</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -73593,28 +73512,28 @@
         <v>275</v>
       </c>
       <c r="C11">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D11">
-        <v>2067</v>
+        <v>2081</v>
       </c>
       <c r="E11">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="F11">
         <v>1255</v>
       </c>
       <c r="G11">
-        <v>1365</v>
+        <v>1375</v>
       </c>
       <c r="H11">
-        <v>2061</v>
+        <v>2069</v>
       </c>
       <c r="I11">
-        <v>1094</v>
+        <v>1108</v>
       </c>
       <c r="J11">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K11">
         <v>993</v>
